--- a/biology/Médecine/Louis_Guillaume_Le_Monnier/Louis_Guillaume_Le_Monnier.xlsx
+++ b/biology/Médecine/Louis_Guillaume_Le_Monnier/Louis_Guillaume_Le_Monnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Guillaume Le Monnier (ou Lemonnier), né à Paris le 27 juin 1717 et mort à Versailles le 7 septembre 1799, est un botaniste français. Il est le frère de l'astronome Pierre Charles Le Monnier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1758, il occupe la chaire de professeur de botanique au Jardin du roi et il est l'un des médecins ordinaires du roi de Louis XV puis de Louis XVI et, à partir de 1788, le Premier médecin du roi. Il est admis à l'Académie des sciences comme adjoint botaniste en 1743 et devient membre de la Royal Society le 7 février 1745.
 Il acquit dans le village de Montreuil, près de Versailles, la célèbre demeure des castrats italiens de Louis XIV, rebâtie en 1752 par l'architecte Jacques Hardouin-Mansart pour la comtesse d'Argenson, Anne Larcher (1706-1764). Il en augmenta le parc afin d'y effectuer ses expériences botaniques. Ce parc devint un des hauts lieux botaniques français. Le cèdre du Liban visible actuellement est réputé avoir été planté par Le Monnier. Le Monnier contribua ainsi à la vocation botanique et agricole du quartier Montreuil de Versailles jusque dans les années 1950. Son parc demeura le jardin botanique de la ville jusqu'aux années 1840 avant que l'on entame progressivement son lotissement.
@@ -547,7 +561,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Leçons de physique expérimentale, sur l'équilibre des liqueurs et sur la nature et les propriétés de l'air, traduites de l'anglois de M. R. Cotes (1742)
 « Observations d'histoire naturelle faites dans les provinces méridionales de France, pendant l'année 1739 », Mémoires de l'Académie royale des sciences de Paris, année 1740, H.-L. Guérin et L. Guérin, Paris, 1744. Repris en partie dans Nicolas Godet, Les anciens minéralogistes du royaume de France, Ruault, Paris, 1779, volume 1, p. 249-261. [lire en ligne]</t>
